--- a/sencing_test/re_collect_data.xlsx
+++ b/sencing_test/re_collect_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasakikanta/R_D/Raspbrerry-Pi-Operation/sencing_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63AA0E7-CE96-F34D-9B72-E47FF21EEECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE5F8FE-15B9-C745-A502-F94DD4B6976C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{1CD07B00-E9A0-5C48-8B7D-EA0661E03D84}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1CD07B00-E9A0-5C48-8B7D-EA0661E03D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="28">
   <si>
     <t>父親</t>
     <rPh sb="0" eb="2">
@@ -170,6 +170,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作
+（意図）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">イト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再実験後の結果</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">サイジッケンゴ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目の実験結果</t>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">ジッケンケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -192,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,12 +255,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB509885-44B1-8D49-BEE8-E79C37E0E559}">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I41"/>
+      <selection activeCell="N2" sqref="N2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -601,8 +651,27 @@
         <f>2/(1/G2+1/H2)</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>J2+J12+J22+J33+J43+J53+J63+J73+J83+J93+J103+J113+J123</f>
+        <v>62</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -631,8 +700,18 @@
         <f t="shared" ref="I3:I66" si="0">2/(1/G3+1/H3)</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="1">J3+J13+J23+J34+J44+J54+J64+J74+J84+J94+J104+J114+J124</f>
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -661,8 +740,42 @@
         <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -691,8 +804,41 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>62</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>O5/65</f>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="W5">
+        <f>2/(1/V5+1/O12)</f>
+        <v>0.97637795275590555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -721,8 +867,33 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>64</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>P6/65</f>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="W6">
+        <f>2/(1/V6+1/P12)</f>
+        <v>0.99224806201550386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -751,13 +922,65 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <f>Q7/65</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="W7">
+        <f>2/(1/V7+1/Q12)</f>
+        <v>0.96000000000000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="2"/>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>26</v>
+      </c>
+      <c r="V8">
+        <f>R8/65</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="W8">
+        <f>2/(1/V8+1/R12)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -767,8 +990,49 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M9" s="2"/>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>62</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f>S9/65</f>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="W9">
+        <f>2/(1/V9+1/S12)</f>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="M10" s="2"/>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>61</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f>T10/65</f>
+        <v>0.93846153846153846</v>
+      </c>
+      <c r="W10">
+        <f>2/(1/V10+1/T12)</f>
+        <v>0.8970588235294118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -796,8 +1060,18 @@
       <c r="I11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -826,8 +1100,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>S9/67</f>
+        <v>0.92537313432835822</v>
+      </c>
+      <c r="T12">
+        <f>T10/71</f>
+        <v>0.85915492957746475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -856,8 +1156,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -887,17 +1190,10 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <f>K15/K14</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -927,13 +1223,22 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -962,8 +1267,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -992,21 +1306,144 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="20" customHeight="1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="M18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <f>O18/65</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="W18">
+        <f>2/(1/V18+1/O25)</f>
+        <v>0.95238095238095255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="D19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M19" s="2"/>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>64</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>P19/65</f>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="W19">
+        <f>2/(1/V19+1/P25)</f>
+        <v>0.85333333333333339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="M20" s="2"/>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>59</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>65</v>
+      </c>
+      <c r="V20">
+        <f>Q20/65</f>
+        <v>0.90769230769230769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1034,8 +1471,37 @@
       <c r="I21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="M21" s="2"/>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>34</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>27</v>
+      </c>
+      <c r="V21">
+        <f>R21/65</f>
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1064,8 +1530,40 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>61</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f>S22/65</f>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1094,8 +1592,40 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>60</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <f>T23/65</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1124,8 +1654,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1154,8 +1709,37 @@
         <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <f>O18/(O18+O19+O20+O21+O22+O23+O24)</f>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="P25">
+        <f>P19/(P19+P21+P24)</f>
+        <v>0.75294117647058822</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f>S22/(S18+S19+S21+S22+S24)</f>
+        <v>0.83561643835616439</v>
+      </c>
+      <c r="T25">
+        <f>T23/(T18+T23+T24)</f>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1184,8 +1768,12 @@
         <f t="shared" si="0"/>
         <v>0.90909090710743801</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1214,8 +1802,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1223,12 +1814,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:23">
       <c r="F29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1286,8 +1877,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1316,8 +1910,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1346,8 +1943,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1376,8 +1976,14 @@
         <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1406,8 +2012,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1436,13 +2045,16 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1500,8 +2112,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +2145,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1560,11 +2178,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="J45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1593,11 +2211,11 @@
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="R46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1626,12 +2244,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R47">
-        <f>R46/R45</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1660,8 +2277,11 @@
         <f t="shared" si="0"/>
         <v>0.83372206348855538</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="D50" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1741,8 +2361,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1771,8 +2394,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1801,8 +2427,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1831,8 +2460,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1861,8 +2493,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1891,13 +2526,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +2546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1966,8 +2604,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1996,8 +2637,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2026,8 +2670,11 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="J65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2056,8 +2703,11 @@
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="J66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2083,11 +2733,14 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I128" si="1">2/(1/G67+1/H67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <f t="shared" ref="I67:I128" si="2">2/(1/G67+1/H67)</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2113,16 +2766,19 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2159,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2185,14 +2841,14 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2218,14 +2874,14 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2251,15 +2907,14 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="K75">
-        <f>K74/K73</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2285,11 +2940,14 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2315,11 +2973,14 @@
         <v>0.71428570999999996</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333041666657</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2345,11 +3006,14 @@
         <v>0.71428570999999996</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333041666657</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2360,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -2389,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2415,11 +3079,14 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2445,11 +3112,14 @@
         <v>1</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2475,11 +3145,14 @@
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2505,11 +3178,14 @@
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2535,11 +3211,14 @@
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2565,16 +3244,19 @@
         <v>1</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -2603,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2629,11 +3311,14 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="J93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2659,11 +3344,14 @@
         <v>1</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2689,11 +3377,14 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2719,18 +3410,14 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K96">
-        <v>5</v>
-      </c>
-      <c r="L96">
-        <f>K96/K97</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2756,14 +3443,14 @@
         <v>0.83333330000000005</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90909088925619796</v>
       </c>
-      <c r="K97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="J97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2789,23 +3476,19 @@
         <v>0.625</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76923076923076916</v>
       </c>
-      <c r="K98">
-        <v>8</v>
-      </c>
-      <c r="L98">
-        <f>K96/K98</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="J98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2860,11 +3543,14 @@
         <v>1</v>
       </c>
       <c r="I103">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2890,11 +3576,14 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2920,11 +3609,14 @@
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="J105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2950,11 +3642,14 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="J106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2980,11 +3675,14 @@
         <v>1</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3010,16 +3708,19 @@
         <v>1</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -3048,7 +3749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3074,11 +3775,14 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3104,11 +3808,14 @@
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3134,11 +3841,14 @@
         <v>1</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3164,11 +3874,14 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="J116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3194,17 +3907,15 @@
         <v>0.75</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K117" s="1">
-        <v>44323</v>
-      </c>
-      <c r="M117">
+      <c r="J117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3230,35 +3941,19 @@
         <v>0.71428570999999996</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333041666657</v>
       </c>
-      <c r="K118">
-        <v>5</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="J118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="K119">
-        <v>7</v>
-      </c>
-      <c r="M119">
-        <f>M117/M118</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="K120">
-        <f>K118/K119</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -3287,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3313,11 +4008,14 @@
         <v>1</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3343,11 +4041,14 @@
         <v>1</v>
       </c>
       <c r="I124">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -3373,11 +4074,14 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3403,11 +4107,14 @@
         <v>1</v>
       </c>
       <c r="I126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74999999999999989</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="J126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3433,11 +4140,14 @@
         <v>1</v>
       </c>
       <c r="I127">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -3463,8 +4173,11 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -3473,6 +4186,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="M18:M26"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
